--- a/RelatorioEscalonamento.xlsx
+++ b/RelatorioEscalonamento.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Tabela de Tarefas" r:id="rId3" sheetId="1"/>
+    <sheet name="Análise de Escalonamento" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>Tarefas</t>
   </si>
@@ -62,34 +63,52 @@
     <t>T10</t>
   </si>
   <si>
+    <t>AlphaBankAttExcel</t>
+  </si>
+  <si>
+    <t>AlphaBank</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>CarManipulator</t>
+  </si>
+  <si>
+    <t>Driver</t>
+  </si>
+  <si>
+    <t>Car</t>
+  </si>
+  <si>
+    <t>SpendFuel</t>
+  </si>
+  <si>
+    <t>CompanyAttExcel</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>Tempo de Resposta Máximo</t>
+  </si>
+  <si>
+    <t>Utilização do Processador</t>
+  </si>
+  <si>
+    <t>Limite de Utilização do Processador</t>
+  </si>
+  <si>
+    <t>Escalonável</t>
+  </si>
+  <si>
+    <t>Não</t>
+  </si>
+  <si>
     <t>ExecutaSimulador</t>
   </si>
   <si>
-    <t>AlphaBank</t>
-  </si>
-  <si>
-    <t>AlphaBankAttExcel</t>
-  </si>
-  <si>
-    <t>Company</t>
-  </si>
-  <si>
-    <t>CarManipulator</t>
-  </si>
-  <si>
-    <t>Driver</t>
-  </si>
-  <si>
-    <t>Car</t>
-  </si>
-  <si>
-    <t>CompanyAttExcel</t>
-  </si>
-  <si>
-    <t>SpendFuel</t>
-  </si>
-  <si>
-    <t>Account</t>
+    <t>Sim</t>
   </si>
 </sst>
 </file>
@@ -165,16 +184,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" t="n">
-        <v>1.701662917E9</v>
+        <v>8765.0</v>
       </c>
       <c r="D2" t="n">
-        <v>1.701662918E9</v>
+        <v>86.0</v>
       </c>
       <c r="E2" t="n">
-        <v>152.0</v>
+        <v>86.0</v>
       </c>
       <c r="F2" t="n">
         <v>140.0</v>
@@ -188,13 +207,13 @@
         <v>17</v>
       </c>
       <c r="C3" t="n">
-        <v>1.701662915E9</v>
+        <v>6606.0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.701662917E9</v>
+        <v>2014.0</v>
       </c>
       <c r="E3" t="n">
-        <v>2040.0</v>
+        <v>2015.0</v>
       </c>
       <c r="F3" t="n">
         <v>2050.0</v>
@@ -205,16 +224,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="n">
-        <v>1.701662918E9</v>
+        <v>8775.0</v>
       </c>
       <c r="D4" t="n">
-        <v>1.701662918E9</v>
+        <v>214.0</v>
       </c>
       <c r="E4" t="n">
-        <v>307.0</v>
+        <v>285.0</v>
       </c>
       <c r="F4" t="n">
         <v>330.0</v>
@@ -225,16 +244,16 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="n">
-        <v>1.701662918E9</v>
+        <v>8772.0</v>
       </c>
       <c r="D5" t="n">
-        <v>1.701662918E9</v>
+        <v>526.0</v>
       </c>
       <c r="E5" t="n">
-        <v>762.0</v>
+        <v>602.0</v>
       </c>
       <c r="F5" t="n">
         <v>850.0</v>
@@ -245,16 +264,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" t="n">
-        <v>1.701662918E9</v>
+        <v>8851.0</v>
       </c>
       <c r="D6" t="n">
-        <v>1.701662918E9</v>
+        <v>89.0</v>
       </c>
       <c r="E6" t="n">
-        <v>123.0</v>
+        <v>89.0</v>
       </c>
       <c r="F6" t="n">
         <v>100.0</v>
@@ -268,13 +287,13 @@
         <v>23</v>
       </c>
       <c r="C7" t="n">
-        <v>1.701662918E9</v>
+        <v>8768.0</v>
       </c>
       <c r="D7" t="n">
-        <v>1.701662919E9</v>
+        <v>53.0</v>
       </c>
       <c r="E7" t="n">
-        <v>122.0</v>
+        <v>654.0</v>
       </c>
       <c r="F7" t="n">
         <v>90.0</v>
@@ -285,16 +304,16 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" t="n">
-        <v>1.701662915E9</v>
+        <v>6609.0</v>
       </c>
       <c r="D8" t="n">
-        <v>1.701662917E9</v>
+        <v>18.0</v>
       </c>
       <c r="E8" t="n">
-        <v>12.0</v>
+        <v>2030.0</v>
       </c>
       <c r="F8" t="n">
         <v>25.0</v>
@@ -305,16 +324,16 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C9" t="n">
-        <v>1.701662915E9</v>
+        <v>6603.0</v>
       </c>
       <c r="D9" t="n">
-        <v>1.701662916E9</v>
+        <v>216.0</v>
       </c>
       <c r="E9" t="n">
-        <v>310.0</v>
+        <v>217.0</v>
       </c>
       <c r="F9" t="n">
         <v>330.0</v>
@@ -325,16 +344,16 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" t="n">
-        <v>1.701662918E9</v>
+        <v>8849.0</v>
       </c>
       <c r="D10" t="n">
-        <v>1.701662919E9</v>
+        <v>1224.0</v>
       </c>
       <c r="E10" t="n">
-        <v>1210.0</v>
+        <v>1224.0</v>
       </c>
       <c r="F10" t="n">
         <v>1240.0</v>
@@ -345,19 +364,64 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="n">
-        <v>1.701662918E9</v>
+        <v>8846.0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.70166292E9</v>
+        <v>2006.0</v>
       </c>
       <c r="E11" t="n">
-        <v>2006.0</v>
+        <v>2007.0</v>
       </c>
       <c r="F11" t="n">
         <v>2030.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="n">
+        <v>2.1322902332E10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="n">
+        <v>7.708935267281805</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="n">
+        <v>10.75166076733719</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/RelatorioEscalonamento.xlsx
+++ b/RelatorioEscalonamento.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>Tarefas</t>
   </si>
@@ -63,52 +63,49 @@
     <t>T10</t>
   </si>
   <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>CarManipulator</t>
+  </si>
+  <si>
+    <t>Driver</t>
+  </si>
+  <si>
+    <t>Car</t>
+  </si>
+  <si>
+    <t>CompanyAttExcel</t>
+  </si>
+  <si>
+    <t>SpendFuel</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>Tempo de Resposta Máximo</t>
+  </si>
+  <si>
+    <t>Utilização do Processador</t>
+  </si>
+  <si>
+    <t>Limite de Utilização do Processador</t>
+  </si>
+  <si>
+    <t>Escalonável</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>ExecutaSimulador</t>
+  </si>
+  <si>
+    <t>AlphaBank</t>
+  </si>
+  <si>
     <t>AlphaBankAttExcel</t>
-  </si>
-  <si>
-    <t>AlphaBank</t>
-  </si>
-  <si>
-    <t>Company</t>
-  </si>
-  <si>
-    <t>CarManipulator</t>
-  </si>
-  <si>
-    <t>Driver</t>
-  </si>
-  <si>
-    <t>Car</t>
-  </si>
-  <si>
-    <t>SpendFuel</t>
-  </si>
-  <si>
-    <t>CompanyAttExcel</t>
-  </si>
-  <si>
-    <t>Account</t>
-  </si>
-  <si>
-    <t>Tempo de Resposta Máximo</t>
-  </si>
-  <si>
-    <t>Utilização do Processador</t>
-  </si>
-  <si>
-    <t>Limite de Utilização do Processador</t>
-  </si>
-  <si>
-    <t>Escalonável</t>
-  </si>
-  <si>
-    <t>Não</t>
-  </si>
-  <si>
-    <t>ExecutaSimulador</t>
-  </si>
-  <si>
-    <t>Sim</t>
   </si>
 </sst>
 </file>
@@ -184,16 +181,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" t="n">
-        <v>8765.0</v>
+        <v>8868.0</v>
       </c>
       <c r="D2" t="n">
-        <v>86.0</v>
+        <v>129.0</v>
       </c>
       <c r="E2" t="n">
-        <v>86.0</v>
+        <v>130.0</v>
       </c>
       <c r="F2" t="n">
         <v>140.0</v>
@@ -204,16 +201,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C3" t="n">
-        <v>6606.0</v>
+        <v>6634.0</v>
       </c>
       <c r="D3" t="n">
-        <v>2014.0</v>
+        <v>2026.0</v>
       </c>
       <c r="E3" t="n">
-        <v>2015.0</v>
+        <v>2026.0</v>
       </c>
       <c r="F3" t="n">
         <v>2050.0</v>
@@ -224,16 +221,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" t="n">
-        <v>8775.0</v>
+        <v>8885.0</v>
       </c>
       <c r="D4" t="n">
-        <v>214.0</v>
+        <v>206.0</v>
       </c>
       <c r="E4" t="n">
-        <v>285.0</v>
+        <v>311.0</v>
       </c>
       <c r="F4" t="n">
         <v>330.0</v>
@@ -244,16 +241,16 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" t="n">
-        <v>8772.0</v>
+        <v>8883.0</v>
       </c>
       <c r="D5" t="n">
-        <v>526.0</v>
+        <v>577.0</v>
       </c>
       <c r="E5" t="n">
-        <v>602.0</v>
+        <v>687.0</v>
       </c>
       <c r="F5" t="n">
         <v>850.0</v>
@@ -264,16 +261,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" t="n">
-        <v>8851.0</v>
+        <v>8997.0</v>
       </c>
       <c r="D6" t="n">
-        <v>89.0</v>
+        <v>127.0</v>
       </c>
       <c r="E6" t="n">
-        <v>89.0</v>
+        <v>128.0</v>
       </c>
       <c r="F6" t="n">
         <v>100.0</v>
@@ -284,16 +281,16 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C7" t="n">
-        <v>8768.0</v>
+        <v>8874.0</v>
       </c>
       <c r="D7" t="n">
-        <v>53.0</v>
+        <v>68.0</v>
       </c>
       <c r="E7" t="n">
-        <v>654.0</v>
+        <v>757.0</v>
       </c>
       <c r="F7" t="n">
         <v>90.0</v>
@@ -304,16 +301,16 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C8" t="n">
-        <v>6609.0</v>
+        <v>6636.0</v>
       </c>
       <c r="D8" t="n">
         <v>18.0</v>
       </c>
       <c r="E8" t="n">
-        <v>2030.0</v>
+        <v>2042.0</v>
       </c>
       <c r="F8" t="n">
         <v>25.0</v>
@@ -324,16 +321,16 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9" t="n">
-        <v>6603.0</v>
+        <v>6632.0</v>
       </c>
       <c r="D9" t="n">
-        <v>216.0</v>
+        <v>220.0</v>
       </c>
       <c r="E9" t="n">
-        <v>217.0</v>
+        <v>220.0</v>
       </c>
       <c r="F9" t="n">
         <v>330.0</v>
@@ -344,16 +341,16 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" t="n">
-        <v>8849.0</v>
+        <v>8994.0</v>
       </c>
       <c r="D10" t="n">
-        <v>1224.0</v>
+        <v>1217.0</v>
       </c>
       <c r="E10" t="n">
-        <v>1224.0</v>
+        <v>1218.0</v>
       </c>
       <c r="F10" t="n">
         <v>1240.0</v>
@@ -364,16 +361,16 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" t="n">
-        <v>8846.0</v>
+        <v>8991.0</v>
       </c>
       <c r="D11" t="n">
-        <v>2006.0</v>
+        <v>2016.0</v>
       </c>
       <c r="E11" t="n">
-        <v>2007.0</v>
+        <v>2016.0</v>
       </c>
       <c r="F11" t="n">
         <v>2030.0</v>
@@ -394,34 +391,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" t="n">
-        <v>2.1322902332E10</v>
+        <v>3.259956199E9</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" t="n">
-        <v>7.708935267281805</v>
+        <v>7.584580303991242</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B3" t="n">
-        <v>10.75166076733719</v>
+        <v>9.542250513793233</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
